--- a/CVA/PD CDS Bootstrapping.xlsx
+++ b/CVA/PD CDS Bootstrapping.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="RR">Sheet1!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,28 +432,28 @@
   <dimension ref="A2:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H10" sqref="H10:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
     <col min="9" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -487,7 +487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -497,7 +497,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -546,7 +546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>A9+B10</f>
         <v>0.5</v>
@@ -574,29 +574,29 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>114.4</v>
+        <v>128.4</v>
       </c>
       <c r="D10">
         <v>0.99583479331400004</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:E19" si="0">-LN(H10)/A10</f>
-        <v>1.8976355744616674E-2</v>
+        <v>2.128632019695954E-2</v>
       </c>
       <c r="F10">
         <f>H9-H10</f>
-        <v>9.4433071386118561E-3</v>
+        <v>1.0586722073810173E-2</v>
       </c>
       <c r="G10">
         <f t="shared" ref="G10:G19" si="1">1-H10</f>
-        <v>9.4433071386118561E-3</v>
+        <v>1.0586722073810173E-2</v>
       </c>
       <c r="H10">
         <f>(1-RR)/((1-RR)+B10*C10/10000)</f>
-        <v>0.99055669286138814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.98941327792618983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ref="A11:A19" ca="1" si="2">A10+B11</f>
         <v>1</v>
@@ -606,7 +606,7 @@
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>133.77000000000001</v>
+        <v>150</v>
       </c>
       <c r="D11">
         <v>0.99096300549399996</v>
@@ -648,7 +648,7 @@
         <v>0.97963619834038873</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ca="1" si="2"/>
         <v>1.5</v>
@@ -659,7 +659,7 @@
       </c>
       <c r="C12">
         <f>AVERAGE(C11,C13)</f>
-        <v>167.18</v>
+        <v>200.29500000000002</v>
       </c>
       <c r="D12">
         <v>0.98569666301900005</v>
@@ -705,7 +705,7 @@
         <v>0.96460852383310669</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
@@ -715,7 +715,7 @@
         <v>0.5</v>
       </c>
       <c r="C13">
-        <v>200.59</v>
+        <v>250.59</v>
       </c>
       <c r="D13">
         <v>0.98010503953600003</v>
@@ -765,7 +765,7 @@
         <v>0.94339102045831336</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" ca="1" si="2"/>
         <v>2.5</v>
@@ -776,7 +776,7 @@
       </c>
       <c r="C14">
         <f>AVERAGE(C13,C15)</f>
-        <v>233.96499999999997</v>
+        <v>280.29500000000002</v>
       </c>
       <c r="D14">
         <v>0.97410111162099999</v>
@@ -830,7 +830,7 @@
         <v>0.91739886194163622</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" ca="1" si="2"/>
         <v>3</v>
@@ -840,7 +840,7 @@
         <v>0.5</v>
       </c>
       <c r="C15">
-        <v>267.33999999999997</v>
+        <v>310</v>
       </c>
       <c r="D15">
         <v>0.96783236118000004</v>
@@ -898,7 +898,7 @@
         <v>0.88694716882742242</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" ca="1" si="2"/>
         <v>3.5</v>
@@ -909,7 +909,7 @@
       </c>
       <c r="C16">
         <f>AVERAGE(C15,C17)</f>
-        <v>296.54499999999996</v>
+        <v>360</v>
       </c>
       <c r="D16">
         <v>0.96123247030000003</v>
@@ -971,7 +971,7 @@
         <v>0.85266136631016198</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" ca="1" si="2"/>
         <v>4</v>
@@ -981,7 +981,7 @@
         <v>0.5</v>
       </c>
       <c r="C17">
-        <v>325.75</v>
+        <v>410</v>
       </c>
       <c r="D17">
         <v>0.95423927873100001</v>
@@ -1047,7 +1047,7 @@
         <v>0.81678425940674526</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" ca="1" si="2"/>
         <v>4.5</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C18">
         <f>AVERAGE(C17,C19)</f>
-        <v>353.2</v>
+        <v>500</v>
       </c>
       <c r="D18">
         <v>0.94689889010399997</v>
@@ -1128,7 +1128,7 @@
         <v>0.77810701608419541</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" ca="1" si="2"/>
         <v>5</v>
@@ -1138,7 +1138,7 @@
         <v>0.5</v>
       </c>
       <c r="C19">
-        <v>380.65</v>
+        <v>590</v>
       </c>
       <c r="D19">
         <v>0.93918722794499998</v>
